--- a/Data/ImagesFeatures/thesoniag.xlsx
+++ b/Data/ImagesFeatures/thesoniag.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -430,7 +430,11 @@
       <c r="F2" t="n">
         <v>29.538</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Blouse,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -459,7 +463,11 @@
       <c r="F3" t="n">
         <v>31.788</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Kaftan,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,7 +496,11 @@
       <c r="F4" t="n">
         <v>33.633</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Kaftan,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,7 +529,11 @@
       <c r="F5" t="n">
         <v>27.682</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -546,7 +562,11 @@
       <c r="F6" t="n">
         <v>31.788</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Kaftan,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -575,7 +595,11 @@
       <c r="F7" t="n">
         <v>39.083</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Halter,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -604,7 +628,11 @@
       <c r="F8" t="n">
         <v>30.367</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -633,7 +661,11 @@
       <c r="F9" t="n">
         <v>31.788</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,7 +694,11 @@
       <c r="F10" t="n">
         <v>31.788</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tee,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -691,7 +727,11 @@
       <c r="F11" t="n">
         <v>34.427</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -720,7 +760,11 @@
       <c r="F12" t="n">
         <v>29.933</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -749,7 +793,11 @@
       <c r="F13" t="n">
         <v>41.9</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Trunks,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -778,7 +826,11 @@
       <c r="F14" t="n">
         <v>31.788</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Jodhpurs,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -807,7 +859,11 @@
       <c r="F15" t="n">
         <v>31.788</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -836,7 +892,11 @@
       <c r="F16" t="n">
         <v>31.788</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -865,7 +925,11 @@
       <c r="F17" t="n">
         <v>31.788</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -894,7 +958,11 @@
       <c r="F18" t="n">
         <v>31.788</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Parka,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -923,7 +991,11 @@
       <c r="F19" t="n">
         <v>29.298</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -952,7 +1024,11 @@
       <c r="F20" t="n">
         <v>25.791</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -981,7 +1057,11 @@
       <c r="F21" t="n">
         <v>32.6</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Blazer,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1010,7 +1090,11 @@
       <c r="F22" t="n">
         <v>35.248</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Blouse,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1039,7 +1123,11 @@
       <c r="F23" t="n">
         <v>30.944</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1068,7 +1156,11 @@
       <c r="F24" t="n">
         <v>29.856</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1097,7 +1189,11 @@
       <c r="F25" t="n">
         <v>32.183</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Blazer,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1126,7 +1222,11 @@
       <c r="F26" t="n">
         <v>30.258</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1155,7 +1255,11 @@
       <c r="F27" t="n">
         <v>36.311</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1184,7 +1288,11 @@
       <c r="F28" t="n">
         <v>33.811</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1213,7 +1321,11 @@
       <c r="F29" t="n">
         <v>28.741</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,7 +1354,11 @@
       <c r="F30" t="n">
         <v>31.788</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Parka,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1271,7 +1387,11 @@
       <c r="F31" t="n">
         <v>28.498</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Trunks,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1300,7 +1420,11 @@
       <c r="F32" t="n">
         <v>31.193</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Caftan,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1329,7 +1453,11 @@
       <c r="F33" t="n">
         <v>29.417</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1358,7 +1486,11 @@
       <c r="F34" t="n">
         <v>34.462</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Blazer,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1387,7 +1519,11 @@
       <c r="F35" t="n">
         <v>30.829</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Blouse,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1416,7 +1552,11 @@
       <c r="F36" t="n">
         <v>22.833</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1445,7 +1585,11 @@
       <c r="F37" t="n">
         <v>25.849</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Blazer,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1474,7 +1618,11 @@
       <c r="F38" t="n">
         <v>31.626</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Trunks,Cutoffs</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1503,7 +1651,11 @@
       <c r="F39" t="n">
         <v>31.788</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Caftan,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1532,7 +1684,11 @@
       <c r="F40" t="n">
         <v>31.788</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Blazer,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1561,7 +1717,11 @@
       <c r="F41" t="n">
         <v>28.116</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1590,7 +1750,11 @@
       <c r="F42" t="n">
         <v>29.938</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1619,7 +1783,11 @@
       <c r="F43" t="n">
         <v>27.895</v>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1648,7 +1816,11 @@
       <c r="F44" t="n">
         <v>31.788</v>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Jodhpurs,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1677,7 +1849,11 @@
       <c r="F45" t="n">
         <v>26.59</v>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1706,7 +1882,11 @@
       <c r="F46" t="n">
         <v>35.178</v>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1735,7 +1915,11 @@
       <c r="F47" t="n">
         <v>29.782</v>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1764,7 +1948,11 @@
       <c r="F48" t="n">
         <v>30.909</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1793,7 +1981,11 @@
       <c r="F49" t="n">
         <v>35.584</v>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Halter,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1822,7 +2014,11 @@
       <c r="F50" t="n">
         <v>26.585</v>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1851,7 +2047,11 @@
       <c r="F51" t="n">
         <v>31.178</v>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1880,7 +2080,11 @@
       <c r="F52" t="n">
         <v>31.788</v>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Trunks,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1909,7 +2113,11 @@
       <c r="F53" t="n">
         <v>31.788</v>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1938,7 +2146,11 @@
       <c r="F54" t="n">
         <v>29.413</v>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1967,7 +2179,11 @@
       <c r="F55" t="n">
         <v>33.387</v>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1996,7 +2212,11 @@
       <c r="F56" t="n">
         <v>31.788</v>
       </c>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2025,7 +2245,11 @@
       <c r="F57" t="n">
         <v>31.788</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2054,7 +2278,11 @@
       <c r="F58" t="n">
         <v>31.788</v>
       </c>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2083,7 +2311,11 @@
       <c r="F59" t="n">
         <v>31.788</v>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Trunks,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2112,7 +2344,11 @@
       <c r="F60" t="n">
         <v>31.788</v>
       </c>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Blouse,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2141,7 +2377,11 @@
       <c r="F61" t="n">
         <v>31.788</v>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2170,7 +2410,11 @@
       <c r="F62" t="n">
         <v>24.08</v>
       </c>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2199,7 +2443,11 @@
       <c r="F63" t="n">
         <v>29.856</v>
       </c>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2228,7 +2476,11 @@
       <c r="F64" t="n">
         <v>32.72</v>
       </c>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2257,7 +2509,11 @@
       <c r="F65" t="n">
         <v>31.788</v>
       </c>
-      <c r="G65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Kaftan,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2286,7 +2542,11 @@
       <c r="F66" t="n">
         <v>26.999</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2315,7 +2575,11 @@
       <c r="F67" t="n">
         <v>31.788</v>
       </c>
-      <c r="G67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Kaftan,Jodhpurs</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2344,7 +2608,11 @@
       <c r="F68" t="n">
         <v>31.788</v>
       </c>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Dress,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2373,7 +2641,11 @@
       <c r="F69" t="n">
         <v>31.788</v>
       </c>
-      <c r="G69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Kaftan,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2402,7 +2674,11 @@
       <c r="F70" t="n">
         <v>31.788</v>
       </c>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Parka,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2431,7 +2707,11 @@
       <c r="F71" t="n">
         <v>31.788</v>
       </c>
-      <c r="G71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Parka,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2460,7 +2740,11 @@
       <c r="F72" t="n">
         <v>31.788</v>
       </c>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Parka</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2489,7 +2773,11 @@
       <c r="F73" t="n">
         <v>31.788</v>
       </c>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2518,7 +2806,11 @@
       <c r="F74" t="n">
         <v>38.146</v>
       </c>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2547,7 +2839,11 @@
       <c r="F75" t="n">
         <v>25.507</v>
       </c>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Caftan,Parka</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2576,7 +2872,11 @@
       <c r="F76" t="n">
         <v>22.524</v>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2605,7 +2905,11 @@
       <c r="F77" t="n">
         <v>28.946</v>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2634,7 +2938,11 @@
       <c r="F78" t="n">
         <v>31.788</v>
       </c>
-      <c r="G78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2663,7 +2971,11 @@
       <c r="F79" t="n">
         <v>31.788</v>
       </c>
-      <c r="G79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2692,7 +3004,11 @@
       <c r="F80" t="n">
         <v>32.861</v>
       </c>
-      <c r="G80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2721,7 +3037,11 @@
       <c r="F81" t="n">
         <v>35.141</v>
       </c>
-      <c r="G81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Jeggings</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2750,7 +3070,11 @@
       <c r="F82" t="n">
         <v>35.568</v>
       </c>
-      <c r="G82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2779,7 +3103,11 @@
       <c r="F83" t="n">
         <v>36.129</v>
       </c>
-      <c r="G83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2808,7 +3136,11 @@
       <c r="F84" t="n">
         <v>38.085</v>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2837,7 +3169,11 @@
       <c r="F85" t="n">
         <v>36.977</v>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Blazer,Jeggings</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2866,7 +3202,11 @@
       <c r="F86" t="n">
         <v>31.788</v>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Blazer,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2895,7 +3235,11 @@
       <c r="F87" t="n">
         <v>27.876</v>
       </c>
-      <c r="G87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2924,7 +3268,11 @@
       <c r="F88" t="n">
         <v>31.788</v>
       </c>
-      <c r="G88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2953,7 +3301,11 @@
       <c r="F89" t="n">
         <v>31.788</v>
       </c>
-      <c r="G89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2982,7 +3334,11 @@
       <c r="F90" t="n">
         <v>40.167</v>
       </c>
-      <c r="G90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Halter,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3011,7 +3367,11 @@
       <c r="F91" t="n">
         <v>31.788</v>
       </c>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Parka,Sweatpants</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3040,7 +3400,11 @@
       <c r="F92" t="n">
         <v>32.498</v>
       </c>
-      <c r="G92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3069,7 +3433,11 @@
       <c r="F93" t="n">
         <v>31.788</v>
       </c>
-      <c r="G93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3098,7 +3466,11 @@
       <c r="F94" t="n">
         <v>31.788</v>
       </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Halter,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3127,7 +3499,11 @@
       <c r="F95" t="n">
         <v>32.034</v>
       </c>
-      <c r="G95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Blazer,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3156,7 +3532,11 @@
       <c r="F96" t="n">
         <v>31.788</v>
       </c>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Blouse,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3185,7 +3565,11 @@
       <c r="F97" t="n">
         <v>29.11</v>
       </c>
-      <c r="G97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3214,7 +3598,11 @@
       <c r="F98" t="n">
         <v>25.37</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Parka,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3243,7 +3631,11 @@
       <c r="F99" t="n">
         <v>31.788</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3272,7 +3664,11 @@
       <c r="F100" t="n">
         <v>31.788</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Sweatpants,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3301,7 +3697,11 @@
       <c r="F101" t="n">
         <v>26.327</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Parka,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3330,7 +3730,11 @@
       <c r="F102" t="n">
         <v>31.788</v>
       </c>
-      <c r="G102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3359,7 +3763,11 @@
       <c r="F103" t="n">
         <v>31.788</v>
       </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Parka,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3388,7 +3796,11 @@
       <c r="F104" t="n">
         <v>34.15</v>
       </c>
-      <c r="G104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Halter,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3417,7 +3829,11 @@
       <c r="F105" t="n">
         <v>24.389</v>
       </c>
-      <c r="G105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3446,7 +3862,11 @@
       <c r="F106" t="n">
         <v>31.788</v>
       </c>
-      <c r="G106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3475,7 +3895,11 @@
       <c r="F107" t="n">
         <v>31.788</v>
       </c>
-      <c r="G107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3504,7 +3928,11 @@
       <c r="F108" t="n">
         <v>31.567</v>
       </c>
-      <c r="G108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3533,7 +3961,11 @@
       <c r="F109" t="n">
         <v>33.002</v>
       </c>
-      <c r="G109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3562,7 +3994,11 @@
       <c r="F110" t="n">
         <v>31.788</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Jodhpurs,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3591,7 +4027,11 @@
       <c r="F111" t="n">
         <v>31.442</v>
       </c>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Gauchos,Sweatpants</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3620,7 +4060,11 @@
       <c r="F112" t="n">
         <v>31.788</v>
       </c>
-      <c r="G112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Parka,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3649,7 +4093,11 @@
       <c r="F113" t="n">
         <v>27.764</v>
       </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3678,7 +4126,11 @@
       <c r="F114" t="n">
         <v>27.251</v>
       </c>
-      <c r="G114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3707,7 +4159,11 @@
       <c r="F115" t="n">
         <v>31.788</v>
       </c>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Halter,Jodhpurs</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3736,7 +4192,11 @@
       <c r="F116" t="n">
         <v>31.788</v>
       </c>
-      <c r="G116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3765,7 +4225,11 @@
       <c r="F117" t="n">
         <v>24.629</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Trunks,Jodhpurs</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3794,7 +4258,11 @@
       <c r="F118" t="n">
         <v>31.788</v>
       </c>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Caftan,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3823,7 +4291,11 @@
       <c r="F119" t="n">
         <v>33.346</v>
       </c>
-      <c r="G119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Halter,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3852,7 +4324,11 @@
       <c r="F120" t="n">
         <v>41.777</v>
       </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Caftan,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3881,7 +4357,11 @@
       <c r="F121" t="n">
         <v>31.788</v>
       </c>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Trunks,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3910,7 +4390,11 @@
       <c r="F122" t="n">
         <v>32.35</v>
       </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Trunks,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3939,7 +4423,11 @@
       <c r="F123" t="n">
         <v>31.788</v>
       </c>
-      <c r="G123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3968,7 +4456,11 @@
       <c r="F124" t="n">
         <v>31.788</v>
       </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Trunks,Parka</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3997,7 +4489,11 @@
       <c r="F125" t="n">
         <v>30.007</v>
       </c>
-      <c r="G125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4026,7 +4522,11 @@
       <c r="F126" t="n">
         <v>30.173</v>
       </c>
-      <c r="G126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Caftan,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4055,7 +4555,11 @@
       <c r="F127" t="n">
         <v>31.788</v>
       </c>
-      <c r="G127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4084,7 +4588,11 @@
       <c r="F128" t="n">
         <v>26.581</v>
       </c>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Caftan,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4113,7 +4621,11 @@
       <c r="F129" t="n">
         <v>31.788</v>
       </c>
-      <c r="G129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4142,7 +4654,11 @@
       <c r="F130" t="n">
         <v>31.788</v>
       </c>
-      <c r="G130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4171,7 +4687,11 @@
       <c r="F131" t="n">
         <v>31.788</v>
       </c>
-      <c r="G131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4200,7 +4720,11 @@
       <c r="F132" t="n">
         <v>31.788</v>
       </c>
-      <c r="G132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4229,7 +4753,11 @@
       <c r="F133" t="n">
         <v>28.561</v>
       </c>
-      <c r="G133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4258,7 +4786,11 @@
       <c r="F134" t="n">
         <v>32.794</v>
       </c>
-      <c r="G134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4287,7 +4819,11 @@
       <c r="F135" t="n">
         <v>31.788</v>
       </c>
-      <c r="G135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4316,7 +4852,11 @@
       <c r="F136" t="n">
         <v>27.22</v>
       </c>
-      <c r="G136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4345,7 +4885,11 @@
       <c r="F137" t="n">
         <v>32.67</v>
       </c>
-      <c r="G137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4374,7 +4918,11 @@
       <c r="F138" t="n">
         <v>30.341</v>
       </c>
-      <c r="G138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4403,7 +4951,11 @@
       <c r="F139" t="n">
         <v>31.509</v>
       </c>
-      <c r="G139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4432,7 +4984,11 @@
       <c r="F140" t="n">
         <v>30.515</v>
       </c>
-      <c r="G140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Cutoffs</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4461,7 +5017,11 @@
       <c r="F141" t="n">
         <v>33.941</v>
       </c>
-      <c r="G141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4490,7 +5050,11 @@
       <c r="F142" t="n">
         <v>31.788</v>
       </c>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Kaftan,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4519,7 +5083,11 @@
       <c r="F143" t="n">
         <v>34.558</v>
       </c>
-      <c r="G143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Halter,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4548,7 +5116,11 @@
       <c r="F144" t="n">
         <v>32.984</v>
       </c>
-      <c r="G144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Cutoffs,Jodhpurs</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4577,7 +5149,11 @@
       <c r="F145" t="n">
         <v>31.788</v>
       </c>
-      <c r="G145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Halter,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4606,7 +5182,11 @@
       <c r="F146" t="n">
         <v>31.788</v>
       </c>
-      <c r="G146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4635,7 +5215,11 @@
       <c r="F147" t="n">
         <v>31.788</v>
       </c>
-      <c r="G147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4664,7 +5248,11 @@
       <c r="F148" t="n">
         <v>33.931</v>
       </c>
-      <c r="G148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4693,7 +5281,11 @@
       <c r="F149" t="n">
         <v>39.37</v>
       </c>
-      <c r="G149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Halter,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4722,7 +5314,11 @@
       <c r="F150" t="n">
         <v>33.384</v>
       </c>
-      <c r="G150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Cutoffs,Trunks</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4751,7 +5347,11 @@
       <c r="F151" t="n">
         <v>43.352</v>
       </c>
-      <c r="G151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Caftan,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4780,7 +5380,11 @@
       <c r="F152" t="n">
         <v>36.927</v>
       </c>
-      <c r="G152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Hoodie</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4809,7 +5413,11 @@
       <c r="F153" t="n">
         <v>36.485</v>
       </c>
-      <c r="G153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Cutoffs,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4838,7 +5446,11 @@
       <c r="F154" t="n">
         <v>40.44</v>
       </c>
-      <c r="G154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Parka,Gauchos</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4867,7 +5479,11 @@
       <c r="F155" t="n">
         <v>36.226</v>
       </c>
-      <c r="G155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Trunks,Blazer</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4896,7 +5512,11 @@
       <c r="F156" t="n">
         <v>35.161</v>
       </c>
-      <c r="G156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4925,7 +5545,11 @@
       <c r="F157" t="n">
         <v>37.69</v>
       </c>
-      <c r="G157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Cutoffs,Jodhpurs</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4954,7 +5578,11 @@
       <c r="F158" t="n">
         <v>39.774</v>
       </c>
-      <c r="G158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Dress</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4983,7 +5611,11 @@
       <c r="F159" t="n">
         <v>32.656</v>
       </c>
-      <c r="G159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Cutoffs,Jumpsuit</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5012,7 +5644,11 @@
       <c r="F160" t="n">
         <v>31.788</v>
       </c>
-      <c r="G160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5041,7 +5677,11 @@
       <c r="F161" t="n">
         <v>31.788</v>
       </c>
-      <c r="G161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Kaftan,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5070,7 +5710,11 @@
       <c r="F162" t="n">
         <v>31.788</v>
       </c>
-      <c r="G162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Jodhpurs,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5099,7 +5743,11 @@
       <c r="F163" t="n">
         <v>30.092</v>
       </c>
-      <c r="G163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Blazer,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5128,7 +5776,11 @@
       <c r="F164" t="n">
         <v>27.623</v>
       </c>
-      <c r="G164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Tee,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5157,7 +5809,11 @@
       <c r="F165" t="n">
         <v>40.102</v>
       </c>
-      <c r="G165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Halter,Tee</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5186,7 +5842,11 @@
       <c r="F166" t="n">
         <v>31.636</v>
       </c>
-      <c r="G166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Blouse</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5215,7 +5875,11 @@
       <c r="F167" t="n">
         <v>30.473</v>
       </c>
-      <c r="G167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5244,7 +5908,11 @@
       <c r="F168" t="n">
         <v>31.788</v>
       </c>
-      <c r="G168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5273,7 +5941,11 @@
       <c r="F169" t="n">
         <v>31.788</v>
       </c>
-      <c r="G169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Trunks,Caftan</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5302,7 +5974,11 @@
       <c r="F170" t="n">
         <v>31.788</v>
       </c>
-      <c r="G170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Jumpsuit,Kaftan</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5331,7 +6007,11 @@
       <c r="F171" t="n">
         <v>25.771</v>
       </c>
-      <c r="G171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Blazer,Halter</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5360,9 +6040,13 @@
       <c r="F172" t="n">
         <v>31.788</v>
       </c>
-      <c r="G172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Blouse,Parka</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>